--- a/ann/603348.SH.xlsx
+++ b/ann/603348.SH.xlsx
@@ -109,15 +109,15 @@
     <t>{444264E5-5457-11ED-B90C-842B2B441A40}</t>
   </si>
   <si>
+    <t>{436B2266-5457-11ED-800A-842B2B53F6AD}</t>
+  </si>
+  <si>
     <t>{444264DE-5457-11ED-B90C-842B2B441A40}</t>
   </si>
   <si>
     <t>{436B226C-5457-11ED-800A-842B2B53F6AD}</t>
   </si>
   <si>
-    <t>{436B2266-5457-11ED-800A-842B2B53F6AD}</t>
-  </si>
-  <si>
     <t>{54FB45FE-4D25-11ED-800A-842B2B53F6AD}</t>
   </si>
   <si>
@@ -664,15 +664,15 @@
     <t>{6BE2ED89-E61D-11EB-8F6B-842B2B15EEF0}</t>
   </si>
   <si>
+    <t>{FFA04618-E2F0-11EB-9A06-12A167CFBE71}</t>
+  </si>
+  <si>
     <t>{EA279C4A-E2F0-11EB-8F6B-842B2B15EEF0}</t>
   </si>
   <si>
     <t>{F04AC59F-E2F0-11EB-96FE-842B2B53F6AD}</t>
   </si>
   <si>
-    <t>{FFA04618-E2F0-11EB-9A06-12A167CFBE71}</t>
-  </si>
-  <si>
     <t>{8BDCF4A5-DB15-11EB-96FE-842B2B53F6AD}</t>
   </si>
   <si>
@@ -928,18 +928,18 @@
     <t>{2603A6DA-468E-11EB-B427-96A468826B84}</t>
   </si>
   <si>
+    <t>{4682D75A-3B90-11EB-8993-ECF4BBEA5887}</t>
+  </si>
+  <si>
+    <t>{4BE88DDB-3B90-11EB-88A7-B8CA3A68EB6B}</t>
+  </si>
+  <si>
+    <t>{449C3DC2-3B90-11EB-8F6B-842B2B15EEF0}</t>
+  </si>
+  <si>
     <t>{45130CFC-3B90-11EB-88A7-B8CA3A68EB6B}</t>
   </si>
   <si>
-    <t>{4682D75A-3B90-11EB-8993-ECF4BBEA5887}</t>
-  </si>
-  <si>
-    <t>{4BE88DDB-3B90-11EB-88A7-B8CA3A68EB6B}</t>
-  </si>
-  <si>
-    <t>{449C3DC2-3B90-11EB-8F6B-842B2B15EEF0}</t>
-  </si>
-  <si>
     <t>{7D507BB8-3613-11EB-8F6B-842B2B15EEF0}</t>
   </si>
   <si>
@@ -1132,30 +1132,30 @@
     <t>{A6FA6962-CA76-11EA-9A93-D43D7EA8BCB9}</t>
   </si>
   <si>
+    <t>{CC024916-C5C1-11EA-A572-D43D7EABBB35}</t>
+  </si>
+  <si>
     <t>{C36FAE77-C5C1-11EA-B908-842B2B441A40}</t>
   </si>
   <si>
+    <t>{D2DB1F50-C5C1-11EA-8EBD-842B2B15EEF0}</t>
+  </si>
+  <si>
+    <t>{B9C68FE2-C5C1-11EA-A572-D43D7EABBB35}</t>
+  </si>
+  <si>
+    <t>{BB174CCB-C5C1-11EA-8EBD-842B2B15EEF0}</t>
+  </si>
+  <si>
+    <t>{23E6B3AA-C5BD-11EA-9B83-D43D7EA8BCB9}</t>
+  </si>
+  <si>
+    <t>{BFFBD37C-C5C1-11EA-A572-D43D7EABBB35}</t>
+  </si>
+  <si>
     <t>{BFFBD38A-C5C1-11EA-A572-D43D7EABBB35}</t>
   </si>
   <si>
-    <t>{D2DB1F50-C5C1-11EA-8EBD-842B2B15EEF0}</t>
-  </si>
-  <si>
-    <t>{B9C68FE2-C5C1-11EA-A572-D43D7EABBB35}</t>
-  </si>
-  <si>
-    <t>{CC024916-C5C1-11EA-A572-D43D7EABBB35}</t>
-  </si>
-  <si>
-    <t>{23E6B3AA-C5BD-11EA-9B83-D43D7EA8BCB9}</t>
-  </si>
-  <si>
-    <t>{BB174CCB-C5C1-11EA-8EBD-842B2B15EEF0}</t>
-  </si>
-  <si>
-    <t>{BFFBD37C-C5C1-11EA-A572-D43D7EABBB35}</t>
-  </si>
-  <si>
     <t>{8F2DE241-C04E-11EA-A5F9-6C0B84A6CDB2}</t>
   </si>
   <si>
@@ -1561,39 +1561,39 @@
     <t>{62482571-199C-11EA-A943-161626E62B3E}</t>
   </si>
   <si>
+    <t>{92467122-167E-11EA-8B16-842B2B441A40}</t>
+  </si>
+  <si>
+    <t>{92467116-167E-11EA-8B16-842B2B441A40}</t>
+  </si>
+  <si>
+    <t>{9246710E-167E-11EA-8B16-842B2B441A40}</t>
+  </si>
+  <si>
+    <t>{29FC2FE2-167D-11EA-A7B2-6C0B84A6CDB2}</t>
+  </si>
+  <si>
+    <t>{9246712D-167E-11EA-8B16-842B2B441A40}</t>
+  </si>
+  <si>
+    <t>{92DC0ABC-167E-11EA-BA87-B239C2B237AA}</t>
+  </si>
+  <si>
+    <t>{9259C1E2-167E-11EA-A7B2-6C0B84A6CDB2}</t>
+  </si>
+  <si>
+    <t>{9259C200-167E-11EA-A7B2-6C0B84A6CDB2}</t>
+  </si>
+  <si>
+    <t>{9259C201-167E-11EA-A7B2-6C0B84A6CDB2}</t>
+  </si>
+  <si>
+    <t>{92DC0ABF-167E-11EA-BA87-B239C2B237AA}</t>
+  </si>
+  <si>
     <t>{39D3F882-167D-11EA-A943-161626E62B3E}</t>
   </si>
   <si>
-    <t>{92DC0ABC-167E-11EA-BA87-B239C2B237AA}</t>
-  </si>
-  <si>
-    <t>{29FC2FE2-167D-11EA-A7B2-6C0B84A6CDB2}</t>
-  </si>
-  <si>
-    <t>{9246710E-167E-11EA-8B16-842B2B441A40}</t>
-  </si>
-  <si>
-    <t>{92467116-167E-11EA-8B16-842B2B441A40}</t>
-  </si>
-  <si>
-    <t>{92467122-167E-11EA-8B16-842B2B441A40}</t>
-  </si>
-  <si>
-    <t>{9246712D-167E-11EA-8B16-842B2B441A40}</t>
-  </si>
-  <si>
-    <t>{9259C1E2-167E-11EA-A7B2-6C0B84A6CDB2}</t>
-  </si>
-  <si>
-    <t>{9259C200-167E-11EA-A7B2-6C0B84A6CDB2}</t>
-  </si>
-  <si>
-    <t>{9259C201-167E-11EA-A7B2-6C0B84A6CDB2}</t>
-  </si>
-  <si>
-    <t>{92DC0ABF-167E-11EA-BA87-B239C2B237AA}</t>
-  </si>
-  <si>
     <t>{6D73535D-0BF2-11EA-8B16-842B2B441A40}</t>
   </si>
   <si>
@@ -3007,15 +3007,15 @@
     <t>文灿股份:2022年度非公开发行股票预案</t>
   </si>
   <si>
+    <t>文灿股份:第三届监事会第十七次会议决议公告</t>
+  </si>
+  <si>
     <t>文灿股份:关于2022年度非公开发行股票摊薄即期回报的风险提示及填补措施和相关主体承诺的公告</t>
   </si>
   <si>
     <t>文灿股份:独立董事关于第三届董事会第二十一次会议相关事项的独立意见</t>
   </si>
   <si>
-    <t>文灿股份:第三届监事会第十七次会议决议公告</t>
-  </si>
-  <si>
     <t>文灿股份:2022年前三季度业绩预告</t>
   </si>
   <si>
@@ -3490,15 +3490,15 @@
     <t>文灿股份:关于变更公司名称、经营范围、注册资本、注册地址完成工商登记的公告</t>
   </si>
   <si>
+    <t>文灿股份:2021年第一次临时股东大会决议公告</t>
+  </si>
+  <si>
     <t>文灿股份:北京海润天睿律师事务所关于广东文灿压铸股份有限公司2021年第一次临时股东大会之法律意见书</t>
   </si>
   <si>
     <t>文灿股份:关于子公司完成工商登记的公告</t>
   </si>
   <si>
-    <t>文灿股份:2021年第一次临时股东大会决议公告</t>
-  </si>
-  <si>
     <t>文灿股份:2021年第一次临时股东大会会议资料</t>
   </si>
   <si>
@@ -3712,18 +3712,18 @@
     <t>文灿股份:将全资子公司的股东借款转增为资本公积的公告</t>
   </si>
   <si>
+    <t>文灿股份:北京市中伦律师事务所关于广东文灿压铸股份有限公司重大资产购买实施情况的法律意见书</t>
+  </si>
+  <si>
+    <t>文灿股份:关于强制挤出结果暨重大资产购买完成的公告</t>
+  </si>
+  <si>
+    <t>文灿股份:中信建投证券股份有限公司关于广东文灿压铸股份有限公司重大资产购买实施情况之独立财务顾问核查意见</t>
+  </si>
+  <si>
     <t>文灿股份:重大资产购买实施情况报告书</t>
   </si>
   <si>
-    <t>文灿股份:北京市中伦律师事务所关于广东文灿压铸股份有限公司重大资产购买实施情况的法律意见书</t>
-  </si>
-  <si>
-    <t>文灿股份:关于强制挤出结果暨重大资产购买完成的公告</t>
-  </si>
-  <si>
-    <t>文灿股份:中信建投证券股份有限公司关于广东文灿压铸股份有限公司重大资产购买实施情况之独立财务顾问核查意见</t>
-  </si>
-  <si>
     <t>文灿股份:关于重大资产购买之强制要约收购进展的公告</t>
   </si>
   <si>
@@ -3883,30 +3883,30 @@
     <t>文灿股份:2020年第三次临时股东大会决议公告</t>
   </si>
   <si>
+    <t>文灿股份:关于回复上海证券交易所《关于对广东文灿压铸股份有限公司重大资产购买报告书(草案)信息披露的问询函》的公告</t>
+  </si>
+  <si>
     <t>文灿股份:重大资产购买报告书(草案)(修订稿)</t>
   </si>
   <si>
+    <t>文灿股份:中信建投证券股份有限公司关于广东文灿压铸股份有限公司重大资产购买报告书之独立财务顾问报告(修订稿)</t>
+  </si>
+  <si>
+    <t>文灿股份:中信建投证券股份有限公司关于上海证券交易所《关于对广东文灿压铸股份有限公司重大资产购买报告书(草案)信息披露的问询函》相关问题之专项核查意见</t>
+  </si>
+  <si>
+    <t>文灿股份:关于重大资产购买报告书(草案)修订说明的公告</t>
+  </si>
+  <si>
+    <t>文灿股份:2020年第三次临时股东大会会议资料</t>
+  </si>
+  <si>
+    <t>文灿股份:上海东洲资产评估有限公司《关于对广东文灿压铸股份有限公司重大资产购买报告书(草案)信息披露的问询函》之回复</t>
+  </si>
+  <si>
     <t>文灿股份:安永华明会计师事务所(特殊普通合伙)关于《广东文灿压铸股份有限公司重大资产购买报告书(草案)信息披露的问询函》相关问题的回复</t>
   </si>
   <si>
-    <t>文灿股份:中信建投证券股份有限公司关于广东文灿压铸股份有限公司重大资产购买报告书之独立财务顾问报告(修订稿)</t>
-  </si>
-  <si>
-    <t>文灿股份:中信建投证券股份有限公司关于上海证券交易所《关于对广东文灿压铸股份有限公司重大资产购买报告书(草案)信息披露的问询函》相关问题之专项核查意见</t>
-  </si>
-  <si>
-    <t>文灿股份:关于回复上海证券交易所《关于对广东文灿压铸股份有限公司重大资产购买报告书(草案)信息披露的问询函》的公告</t>
-  </si>
-  <si>
-    <t>文灿股份:2020年第三次临时股东大会会议资料</t>
-  </si>
-  <si>
-    <t>文灿股份:关于重大资产购买报告书(草案)修订说明的公告</t>
-  </si>
-  <si>
-    <t>文灿股份:上海东洲资产评估有限公司《关于对广东文灿压铸股份有限公司重大资产购买报告书(草案)信息披露的问询函》之回复</t>
-  </si>
-  <si>
     <t>文灿股份:关于收到上海证券交易所对公司重大资产购买报告书(草案)信息披露的问询函的公告</t>
   </si>
   <si>
@@ -4246,39 +4246,39 @@
     <t>文灿股份:关于向中国兴业银行申请并购贷款的公告</t>
   </si>
   <si>
+    <t>文灿股份:第二届董事会第二十次会议决议公告</t>
+  </si>
+  <si>
+    <t>文灿股份:独立董事关于公司第二届董事会第二十次会议相关事项的独立意见</t>
+  </si>
+  <si>
+    <t>文灿股份:2019年限制性股票与股票期权激励计划实施考核管理办法</t>
+  </si>
+  <si>
+    <t>文灿股份:关于筹划重大资产重组的提示性公告</t>
+  </si>
+  <si>
+    <t>文灿股份:2019年限制性股票与股票期权激励计划(草案)摘要公告</t>
+  </si>
+  <si>
+    <t>文灿股份:2019年限制性股票与股票期权激励计划首次授予激励对象名单</t>
+  </si>
+  <si>
+    <t>文灿股份:第二届监事会第十五次会议决议公告</t>
+  </si>
+  <si>
+    <t>文灿股份:北京市邦盛律师事务所关于广东文灿压铸股份有限公司2019年限制性股票与股票期权激励计划的法律意见书</t>
+  </si>
+  <si>
+    <t>文灿股份:监事会关于公司2019年限制性股票与股票期权激励计划相关事项的核查意见</t>
+  </si>
+  <si>
+    <t>文灿股份:2019年限制性股票与股票期权激励计划(草案)</t>
+  </si>
+  <si>
     <t>文灿股份:关于公司股票及可转债复牌的提示性公告</t>
   </si>
   <si>
-    <t>文灿股份:2019年限制性股票与股票期权激励计划首次授予激励对象名单</t>
-  </si>
-  <si>
-    <t>文灿股份:关于筹划重大资产重组的提示性公告</t>
-  </si>
-  <si>
-    <t>文灿股份:2019年限制性股票与股票期权激励计划实施考核管理办法</t>
-  </si>
-  <si>
-    <t>文灿股份:独立董事关于公司第二届董事会第二十次会议相关事项的独立意见</t>
-  </si>
-  <si>
-    <t>文灿股份:第二届董事会第二十次会议决议公告</t>
-  </si>
-  <si>
-    <t>文灿股份:2019年限制性股票与股票期权激励计划(草案)摘要公告</t>
-  </si>
-  <si>
-    <t>文灿股份:第二届监事会第十五次会议决议公告</t>
-  </si>
-  <si>
-    <t>文灿股份:北京市邦盛律师事务所关于广东文灿压铸股份有限公司2019年限制性股票与股票期权激励计划的法律意见书</t>
-  </si>
-  <si>
-    <t>文灿股份:监事会关于公司2019年限制性股票与股票期权激励计划相关事项的核查意见</t>
-  </si>
-  <si>
-    <t>文灿股份:2019年限制性股票与股票期权激励计划(草案)</t>
-  </si>
-  <si>
     <t>文灿股份:2019年11月18日投资者关系活动记录表</t>
   </si>
   <si>
@@ -4891,15 +4891,15 @@
     <t>http://news.windin.com/bulletin/138529626.pdf?mediatype=03&amp;&amp;pkid=138529626&amp;&amp;id=142057868</t>
   </si>
   <si>
+    <t>http://news.windin.com/bulletin/138529624.pdf?mediatype=03&amp;&amp;pkid=138529624&amp;&amp;id=142057744</t>
+  </si>
+  <si>
     <t>http://news.windin.com/bulletin/138529482.pdf?mediatype=03&amp;&amp;pkid=138529482&amp;&amp;id=142057746</t>
   </si>
   <si>
     <t>http://news.windin.com/bulletin/138529625.pdf?mediatype=03&amp;&amp;pkid=138529625&amp;&amp;id=142057866</t>
   </si>
   <si>
-    <t>http://news.windin.com/bulletin/138529624.pdf?mediatype=03&amp;&amp;pkid=138529624&amp;&amp;id=142057744</t>
-  </si>
-  <si>
     <t>http://news.windin.com/bulletin/136620148.pdf?mediatype=03&amp;&amp;pkid=136620148&amp;&amp;id=139643984</t>
   </si>
   <si>
@@ -5446,15 +5446,15 @@
     <t>http://news.windin.com/bulletin/105236291.pdf?mediatype=03&amp;&amp;pkid=105236291&amp;&amp;id=125328458</t>
   </si>
   <si>
+    <t>http://news.windin.com/bulletin/105008060.pdf?mediatype=03&amp;&amp;pkid=105008060&amp;&amp;id=125218042</t>
+  </si>
+  <si>
     <t>http://news.windin.com/bulletin/105008056.pdf?mediatype=03&amp;&amp;pkid=105008056&amp;&amp;id=125218038</t>
   </si>
   <si>
     <t>http://news.windin.com/bulletin/105008057.pdf?mediatype=03&amp;&amp;pkid=105008057&amp;&amp;id=125218040</t>
   </si>
   <si>
-    <t>http://news.windin.com/bulletin/105008060.pdf?mediatype=03&amp;&amp;pkid=105008060&amp;&amp;id=125218042</t>
-  </si>
-  <si>
     <t>http://news.windin.com/bulletin/104576498.pdf?mediatype=03&amp;&amp;pkid=104576498&amp;&amp;id=125055502</t>
   </si>
   <si>
@@ -5710,18 +5710,18 @@
     <t>http://news.windin.com/bulletin/92204083.pdf?mediatype=03&amp;&amp;pkid=92204083&amp;&amp;id=120769836</t>
   </si>
   <si>
+    <t>http://news.windin.com/bulletin/91463622.pdf?mediatype=03&amp;&amp;pkid=91463622&amp;&amp;id=120510694</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/91463621.pdf?mediatype=03&amp;&amp;pkid=91463621&amp;&amp;id=120510692</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/91463612.pdf?mediatype=03&amp;&amp;pkid=91463612&amp;&amp;id=120510684</t>
+  </si>
+  <si>
     <t>http://news.windin.com/bulletin/91463615.pdf?mediatype=03&amp;&amp;pkid=91463615&amp;&amp;id=120510686</t>
   </si>
   <si>
-    <t>http://news.windin.com/bulletin/91463622.pdf?mediatype=03&amp;&amp;pkid=91463622&amp;&amp;id=120510694</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/91463621.pdf?mediatype=03&amp;&amp;pkid=91463621&amp;&amp;id=120510692</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/91463612.pdf?mediatype=03&amp;&amp;pkid=91463612&amp;&amp;id=120510684</t>
-  </si>
-  <si>
     <t>http://news.windin.com/bulletin/91062803.pdf?mediatype=03&amp;&amp;pkid=91062803&amp;&amp;id=120400482</t>
   </si>
   <si>
@@ -5914,30 +5914,30 @@
     <t>http://news.windin.com/bulletin/85380872.pdf?mediatype=03&amp;&amp;pkid=85380872&amp;&amp;id=117447556</t>
   </si>
   <si>
+    <t>http://news.windin.com/bulletin/85046519.pdf?mediatype=03&amp;&amp;pkid=85046519&amp;&amp;id=117314336</t>
+  </si>
+  <si>
     <t>http://news.windin.com/bulletin/85046485.pdf?mediatype=03&amp;&amp;pkid=85046485&amp;&amp;id=117314300</t>
   </si>
   <si>
+    <t>http://news.windin.com/bulletin/85046546.pdf?mediatype=03&amp;&amp;pkid=85046546&amp;&amp;id=117314350</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/85046464.pdf?mediatype=03&amp;&amp;pkid=85046464&amp;&amp;id=117314266</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/85046476.pdf?mediatype=03&amp;&amp;pkid=85046476&amp;&amp;id=117314288</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/85045891.pdf?mediatype=03&amp;&amp;pkid=85045891&amp;&amp;id=117313468</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/85046475.pdf?mediatype=03&amp;&amp;pkid=85046475&amp;&amp;id=117314290</t>
+  </si>
+  <si>
     <t>http://news.windin.com/bulletin/85046486.pdf?mediatype=03&amp;&amp;pkid=85046486&amp;&amp;id=117314302</t>
   </si>
   <si>
-    <t>http://news.windin.com/bulletin/85046546.pdf?mediatype=03&amp;&amp;pkid=85046546&amp;&amp;id=117314350</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/85046464.pdf?mediatype=03&amp;&amp;pkid=85046464&amp;&amp;id=117314266</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/85046519.pdf?mediatype=03&amp;&amp;pkid=85046519&amp;&amp;id=117314336</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/85045891.pdf?mediatype=03&amp;&amp;pkid=85045891&amp;&amp;id=117313468</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/85046476.pdf?mediatype=03&amp;&amp;pkid=85046476&amp;&amp;id=117314288</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/85046475.pdf?mediatype=03&amp;&amp;pkid=85046475&amp;&amp;id=117314290</t>
-  </si>
-  <si>
     <t>http://news.windin.com/bulletin/84712818.pdf?mediatype=03&amp;&amp;pkid=84712818&amp;&amp;id=117163424</t>
   </si>
   <si>
@@ -6343,39 +6343,39 @@
     <t>http://news.windin.com/bulletin/62100808.pdf?mediatype=03&amp;&amp;pkid=62100808&amp;&amp;id=110371324</t>
   </si>
   <si>
+    <t>http://news.windin.com/bulletin/61799341.pdf?mediatype=03&amp;&amp;pkid=61799341&amp;&amp;id=110305066</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/61799337.pdf?mediatype=03&amp;&amp;pkid=61799337&amp;&amp;id=110305058</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/61799335.pdf?mediatype=03&amp;&amp;pkid=61799335&amp;&amp;id=110305054</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/61798948.pdf?mediatype=03&amp;&amp;pkid=61798948&amp;&amp;id=110304744</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/61799345.pdf?mediatype=03&amp;&amp;pkid=61799345&amp;&amp;id=110305074</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/61799348.pdf?mediatype=03&amp;&amp;pkid=61799348&amp;&amp;id=110305084</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/61799338.pdf?mediatype=03&amp;&amp;pkid=61799338&amp;&amp;id=110305060</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/61799350.pdf?mediatype=03&amp;&amp;pkid=61799350&amp;&amp;id=110305086</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/61799349.pdf?mediatype=03&amp;&amp;pkid=61799349&amp;&amp;id=110305082</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/bulletin/61799347.pdf?mediatype=03&amp;&amp;pkid=61799347&amp;&amp;id=110305078</t>
+  </si>
+  <si>
     <t>http://news.windin.com/bulletin/61798985.pdf?mediatype=03&amp;&amp;pkid=61798985&amp;&amp;id=110304782</t>
   </si>
   <si>
-    <t>http://news.windin.com/bulletin/61799348.pdf?mediatype=03&amp;&amp;pkid=61799348&amp;&amp;id=110305084</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/61798948.pdf?mediatype=03&amp;&amp;pkid=61798948&amp;&amp;id=110304744</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/61799335.pdf?mediatype=03&amp;&amp;pkid=61799335&amp;&amp;id=110305054</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/61799337.pdf?mediatype=03&amp;&amp;pkid=61799337&amp;&amp;id=110305058</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/61799341.pdf?mediatype=03&amp;&amp;pkid=61799341&amp;&amp;id=110305066</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/61799345.pdf?mediatype=03&amp;&amp;pkid=61799345&amp;&amp;id=110305074</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/61799338.pdf?mediatype=03&amp;&amp;pkid=61799338&amp;&amp;id=110305060</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/61799350.pdf?mediatype=03&amp;&amp;pkid=61799350&amp;&amp;id=110305086</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/61799349.pdf?mediatype=03&amp;&amp;pkid=61799349&amp;&amp;id=110305082</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/bulletin/61799347.pdf?mediatype=03&amp;&amp;pkid=61799347&amp;&amp;id=110305078</t>
-  </si>
-  <si>
     <t>http://news.windin.com/bulletin/60743324.doc?mediatype=03&amp;&amp;pkid=60743324&amp;&amp;id=110062572</t>
   </si>
   <si>
@@ -7630,15 +7630,15 @@
     <t>http://news.windin.com/ns/bulletin.php?id=142057868&amp;type=1&amp;code=444264E55457</t>
   </si>
   <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=142057744&amp;type=1&amp;code=436B22665457</t>
+  </si>
+  <si>
     <t>http://news.windin.com/ns/bulletin.php?id=142057746&amp;type=1&amp;code=444264DE5457</t>
   </si>
   <si>
     <t>http://news.windin.com/ns/bulletin.php?id=142057866&amp;type=1&amp;code=436B226C5457</t>
   </si>
   <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=142057744&amp;type=1&amp;code=436B22665457</t>
-  </si>
-  <si>
     <t>http://news.windin.com/ns/bulletin.php?id=139643984&amp;type=1&amp;code=54FB45FE4D25</t>
   </si>
   <si>
@@ -8182,15 +8182,15 @@
     <t>http://news.windin.com/ns/bulletin.php?id=125328458&amp;type=1&amp;code=6BE2ED89E61D</t>
   </si>
   <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=125218042&amp;type=1&amp;code=FFA04618E2F0</t>
+  </si>
+  <si>
     <t>http://news.windin.com/ns/bulletin.php?id=125218038&amp;type=1&amp;code=EA279C4AE2F0</t>
   </si>
   <si>
     <t>http://news.windin.com/ns/bulletin.php?id=125218040&amp;type=1&amp;code=F04AC59FE2F0</t>
   </si>
   <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=125218042&amp;type=1&amp;code=FFA04618E2F0</t>
-  </si>
-  <si>
     <t>http://news.windin.com/ns/bulletin.php?id=125055502&amp;type=1&amp;code=8BDCF4A5DB15</t>
   </si>
   <si>
@@ -8443,18 +8443,18 @@
     <t>http://news.windin.com/ns/bulletin.php?id=120769836&amp;type=1&amp;code=2603A6DA468E</t>
   </si>
   <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=120510694&amp;type=1&amp;code=4682D75A3B90</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=120510692&amp;type=1&amp;code=4BE88DDB3B90</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=120510684&amp;type=1&amp;code=449C3DC23B90</t>
+  </si>
+  <si>
     <t>http://news.windin.com/ns/bulletin.php?id=120510686&amp;type=1&amp;code=45130CFC3B90</t>
   </si>
   <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=120510694&amp;type=1&amp;code=4682D75A3B90</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=120510692&amp;type=1&amp;code=4BE88DDB3B90</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=120510684&amp;type=1&amp;code=449C3DC23B90</t>
-  </si>
-  <si>
     <t>http://news.windin.com/ns/bulletin.php?id=120400482&amp;type=1&amp;code=7D507BB83613</t>
   </si>
   <si>
@@ -8647,30 +8647,30 @@
     <t>http://news.windin.com/ns/bulletin.php?id=117447556&amp;type=1&amp;code=A6FA6962CA76</t>
   </si>
   <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=117314336&amp;type=1&amp;code=CC024916C5C1</t>
+  </si>
+  <si>
     <t>http://news.windin.com/ns/bulletin.php?id=117314300&amp;type=1&amp;code=C36FAE77C5C1</t>
   </si>
   <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=117314350&amp;type=1&amp;code=D2DB1F50C5C1</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=117314266&amp;type=1&amp;code=B9C68FE2C5C1</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=117314288&amp;type=1&amp;code=BB174CCBC5C1</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=117313468&amp;type=1&amp;code=23E6B3AAC5BD</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=117314290&amp;type=1&amp;code=BFFBD37CC5C1</t>
+  </si>
+  <si>
     <t>http://news.windin.com/ns/bulletin.php?id=117314302&amp;type=1&amp;code=BFFBD38AC5C1</t>
   </si>
   <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=117314350&amp;type=1&amp;code=D2DB1F50C5C1</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=117314266&amp;type=1&amp;code=B9C68FE2C5C1</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=117314336&amp;type=1&amp;code=CC024916C5C1</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=117313468&amp;type=1&amp;code=23E6B3AAC5BD</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=117314288&amp;type=1&amp;code=BB174CCBC5C1</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=117314290&amp;type=1&amp;code=BFFBD37CC5C1</t>
-  </si>
-  <si>
     <t>http://news.windin.com/ns/bulletin.php?id=117163424&amp;type=1&amp;code=8F2DE241C04E</t>
   </si>
   <si>
@@ -9076,39 +9076,39 @@
     <t>http://news.windin.com/ns/bulletin.php?id=110371324&amp;type=1&amp;code=62482571199C</t>
   </si>
   <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=110305066&amp;type=1&amp;code=92467122167E</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=110305058&amp;type=1&amp;code=92467116167E</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=110305054&amp;type=1&amp;code=9246710E167E</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=110304744&amp;type=1&amp;code=29FC2FE2167D</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=110305074&amp;type=1&amp;code=9246712D167E</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=110305084&amp;type=1&amp;code=92DC0ABC167E</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=110305060&amp;type=1&amp;code=9259C1E2167E</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=110305086&amp;type=1&amp;code=9259C200167E</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=110305082&amp;type=1&amp;code=9259C201167E</t>
+  </si>
+  <si>
+    <t>http://news.windin.com/ns/bulletin.php?id=110305078&amp;type=1&amp;code=92DC0ABF167E</t>
+  </si>
+  <si>
     <t>http://news.windin.com/ns/bulletin.php?id=110304782&amp;type=1&amp;code=39D3F882167D</t>
   </si>
   <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=110305084&amp;type=1&amp;code=92DC0ABC167E</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=110304744&amp;type=1&amp;code=29FC2FE2167D</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=110305054&amp;type=1&amp;code=9246710E167E</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=110305058&amp;type=1&amp;code=92467116167E</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=110305066&amp;type=1&amp;code=92467122167E</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=110305074&amp;type=1&amp;code=9246712D167E</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=110305060&amp;type=1&amp;code=9259C1E2167E</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=110305086&amp;type=1&amp;code=9259C200167E</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=110305082&amp;type=1&amp;code=9259C201167E</t>
-  </si>
-  <si>
-    <t>http://news.windin.com/ns/bulletin.php?id=110305078&amp;type=1&amp;code=92DC0ABF167E</t>
-  </si>
-  <si>
     <t>http://news.windin.com/ns/bulletin.php?id=110062572&amp;type=1&amp;code=6D73535D0BF2</t>
   </si>
   <si>
@@ -10045,10 +10045,10 @@
     <t>&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;广东文灿压铸股份有限公司将于2021年6月10日披露本次权益分派的实施公告和可转债转股价格调整公告。&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;自2021年6月9日至权益分派股权登记日期间，“文灿转债”将停止转股，股权登记日后的第一个交易日起“文灿转债”恢复转股，欲享受本次权益分派的可转债持有人可在2021年6月8日（含2021年6月8日）之前进行转股。&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;仅供参考，请查阅当日公告全文。&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;广东文灿压铸股份有限公司第二届董事会第二十次会议于2019年12月3日召开，会议审议通过《关于&lt;广东文灿压铸股份有限公司2019年限制性股票与股票期权激励计划（草案）&gt;及其摘要的议案》、《关于&lt;广东文灿压铸股份有限公司2019年限制性股票与股票期权激励计划实施考核管理办法&gt;的议案》、《关于提请股东大会授权董事会办理2019年限制性股票与股票期权激励计划有关事项的议案》。&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;仅供参考，请查阅当日公告全文。&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;广东文灿压铸股份有限公司因正在筹划与主营业务相关的重大事项，正在筹划的重大事项将可能构成重大资产重组，公司需要对相关事项进行核查。鉴于该事项存在重大不确定性，经公司向上海证券交易所申请，公司股票及可转债（债券简称：文灿转债）于2019年12月4日紧急停牌。&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;按照相关规定，经公司向上海证券交易所申请，公司股票及可转债将于2019年12月5日开市起复牌。&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;仅供参考，请查阅当日公告全文。&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;广东文灿压铸股份有限公司第二届董事会第二十次会议于2019年12月3日召开，会议审议通过《关于&lt;广东文灿压铸股份有限公司2019年限制性股票与股票期权激励计划（草案）&gt;及其摘要的议案》、《关于&lt;广东文灿压铸股份有限公司2019年限制性股票与股票期权激励计划实施考核管理办法&gt;的议案》、《关于提请股东大会授权董事会办理2019年限制性股票与股票期权激励计划有关事项的议案》。&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;仅供参考，请查阅当日公告全文。&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;基本每股收益(元) 0.17&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;加权平均净资产收益率(%) 1.84&lt;/p&gt;&lt;p&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;仅供参考，请查阅当日公告全文。&lt;/p&gt;</t>
@@ -11279,7 +11279,7 @@
         <v>1625</v>
       </c>
       <c r="I19">
-        <v>142057746</v>
+        <v>142057744</v>
       </c>
       <c r="J19" t="s">
         <v>2344</v>
@@ -11294,7 +11294,7 @@
         <v>3261</v>
       </c>
       <c r="N19" t="s">
-        <v>3274</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -11323,7 +11323,7 @@
         <v>1626</v>
       </c>
       <c r="I20">
-        <v>142057866</v>
+        <v>142057746</v>
       </c>
       <c r="J20" t="s">
         <v>2344</v>
@@ -11338,7 +11338,7 @@
         <v>3261</v>
       </c>
       <c r="N20" t="s">
-        <v>3264</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -11367,7 +11367,7 @@
         <v>1627</v>
       </c>
       <c r="I21">
-        <v>142057744</v>
+        <v>142057866</v>
       </c>
       <c r="J21" t="s">
         <v>2344</v>
@@ -19353,7 +19353,7 @@
         <v>1810</v>
       </c>
       <c r="I204">
-        <v>125218038</v>
+        <v>125218042</v>
       </c>
       <c r="J204" t="s">
         <v>2398</v>
@@ -19368,7 +19368,7 @@
         <v>3261</v>
       </c>
       <c r="N204" t="s">
-        <v>3302</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -19397,7 +19397,7 @@
         <v>1811</v>
       </c>
       <c r="I205">
-        <v>125218040</v>
+        <v>125218038</v>
       </c>
       <c r="J205" t="s">
         <v>2398</v>
@@ -19412,7 +19412,7 @@
         <v>3261</v>
       </c>
       <c r="N205" t="s">
-        <v>3281</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -19441,7 +19441,7 @@
         <v>1812</v>
       </c>
       <c r="I206">
-        <v>125218042</v>
+        <v>125218040</v>
       </c>
       <c r="J206" t="s">
         <v>2398</v>
@@ -19456,7 +19456,7 @@
         <v>3261</v>
       </c>
       <c r="N206" t="s">
-        <v>3273</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -19960,7 +19960,7 @@
         <v>814</v>
       </c>
       <c r="G218" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>1824</v>
@@ -23210,7 +23210,7 @@
         <v>1898</v>
       </c>
       <c r="I292">
-        <v>120510686</v>
+        <v>120510694</v>
       </c>
       <c r="J292" t="s">
         <v>2421</v>
@@ -23225,7 +23225,7 @@
         <v>3261</v>
       </c>
       <c r="N292" t="s">
-        <v>3305</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -23254,7 +23254,7 @@
         <v>1899</v>
       </c>
       <c r="I293">
-        <v>120510694</v>
+        <v>120510692</v>
       </c>
       <c r="J293" t="s">
         <v>2421</v>
@@ -23269,7 +23269,7 @@
         <v>3261</v>
       </c>
       <c r="N293" t="s">
-        <v>3310</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -23298,7 +23298,7 @@
         <v>1900</v>
       </c>
       <c r="I294">
-        <v>120510692</v>
+        <v>120510684</v>
       </c>
       <c r="J294" t="s">
         <v>2421</v>
@@ -23313,7 +23313,7 @@
         <v>3261</v>
       </c>
       <c r="N294" t="s">
-        <v>3305</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -23342,7 +23342,7 @@
         <v>1901</v>
       </c>
       <c r="I295">
-        <v>120510684</v>
+        <v>120510686</v>
       </c>
       <c r="J295" t="s">
         <v>2421</v>
@@ -23357,7 +23357,7 @@
         <v>3261</v>
       </c>
       <c r="N295" t="s">
-        <v>3312</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -26193,7 +26193,7 @@
         <v>1966</v>
       </c>
       <c r="I360">
-        <v>117314300</v>
+        <v>117314336</v>
       </c>
       <c r="J360" t="s">
         <v>2438</v>
@@ -26237,7 +26237,7 @@
         <v>1967</v>
       </c>
       <c r="I361">
-        <v>117314302</v>
+        <v>117314300</v>
       </c>
       <c r="J361" t="s">
         <v>2438</v>
@@ -26369,7 +26369,7 @@
         <v>1970</v>
       </c>
       <c r="I364">
-        <v>117314336</v>
+        <v>117314288</v>
       </c>
       <c r="J364" t="s">
         <v>2438</v>
@@ -26457,7 +26457,7 @@
         <v>1972</v>
       </c>
       <c r="I366">
-        <v>117314288</v>
+        <v>117314290</v>
       </c>
       <c r="J366" t="s">
         <v>2438</v>
@@ -26501,7 +26501,7 @@
         <v>1973</v>
       </c>
       <c r="I367">
-        <v>117314290</v>
+        <v>117314302</v>
       </c>
       <c r="J367" t="s">
         <v>2438</v>
@@ -32473,7 +32473,7 @@
         <v>2109</v>
       </c>
       <c r="I503">
-        <v>110304782</v>
+        <v>110305066</v>
       </c>
       <c r="J503" t="s">
         <v>2469</v>
@@ -32482,13 +32482,13 @@
         <v>3020</v>
       </c>
       <c r="L503" t="s">
-        <v>3258</v>
+        <v>914</v>
       </c>
       <c r="M503" t="s">
         <v>3261</v>
       </c>
       <c r="N503" t="s">
-        <v>3329</v>
+        <v>3267</v>
       </c>
       <c r="O503" t="s">
         <v>3343</v>
@@ -32520,7 +32520,7 @@
         <v>2110</v>
       </c>
       <c r="I504">
-        <v>110305084</v>
+        <v>110305058</v>
       </c>
       <c r="J504" t="s">
         <v>2469</v>
@@ -32535,7 +32535,7 @@
         <v>3261</v>
       </c>
       <c r="N504" t="s">
-        <v>3285</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="505" spans="1:15">
@@ -32564,7 +32564,7 @@
         <v>2111</v>
       </c>
       <c r="I505">
-        <v>110304744</v>
+        <v>110305054</v>
       </c>
       <c r="J505" t="s">
         <v>2469</v>
@@ -32579,7 +32579,7 @@
         <v>3261</v>
       </c>
       <c r="N505" t="s">
-        <v>3318</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="506" spans="1:15">
@@ -32608,7 +32608,7 @@
         <v>2112</v>
       </c>
       <c r="I506">
-        <v>110305054</v>
+        <v>110304744</v>
       </c>
       <c r="J506" t="s">
         <v>2469</v>
@@ -32623,7 +32623,7 @@
         <v>3261</v>
       </c>
       <c r="N506" t="s">
-        <v>3285</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="507" spans="1:15">
@@ -32652,7 +32652,7 @@
         <v>2113</v>
       </c>
       <c r="I507">
-        <v>110305058</v>
+        <v>110305074</v>
       </c>
       <c r="J507" t="s">
         <v>2469</v>
@@ -32667,7 +32667,7 @@
         <v>3261</v>
       </c>
       <c r="N507" t="s">
-        <v>3264</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="508" spans="1:15">
@@ -32696,7 +32696,7 @@
         <v>2114</v>
       </c>
       <c r="I508">
-        <v>110305066</v>
+        <v>110305084</v>
       </c>
       <c r="J508" t="s">
         <v>2469</v>
@@ -32705,16 +32705,13 @@
         <v>3025</v>
       </c>
       <c r="L508" t="s">
-        <v>914</v>
+        <v>2469</v>
       </c>
       <c r="M508" t="s">
         <v>3261</v>
       </c>
       <c r="N508" t="s">
-        <v>3267</v>
-      </c>
-      <c r="O508" t="s">
-        <v>3344</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="509" spans="1:15">
@@ -32743,7 +32740,7 @@
         <v>2115</v>
       </c>
       <c r="I509">
-        <v>110305074</v>
+        <v>110305060</v>
       </c>
       <c r="J509" t="s">
         <v>2469</v>
@@ -32758,7 +32755,7 @@
         <v>3261</v>
       </c>
       <c r="N509" t="s">
-        <v>3285</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="510" spans="1:15">
@@ -32787,7 +32784,7 @@
         <v>2116</v>
       </c>
       <c r="I510">
-        <v>110305060</v>
+        <v>110305086</v>
       </c>
       <c r="J510" t="s">
         <v>2469</v>
@@ -32802,7 +32799,7 @@
         <v>3261</v>
       </c>
       <c r="N510" t="s">
-        <v>3264</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="511" spans="1:15">
@@ -32831,7 +32828,7 @@
         <v>2117</v>
       </c>
       <c r="I511">
-        <v>110305086</v>
+        <v>110305082</v>
       </c>
       <c r="J511" t="s">
         <v>2469</v>
@@ -32846,7 +32843,7 @@
         <v>3261</v>
       </c>
       <c r="N511" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="512" spans="1:15">
@@ -32875,7 +32872,7 @@
         <v>2118</v>
       </c>
       <c r="I512">
-        <v>110305082</v>
+        <v>110305078</v>
       </c>
       <c r="J512" t="s">
         <v>2469</v>
@@ -32919,7 +32916,7 @@
         <v>2119</v>
       </c>
       <c r="I513">
-        <v>110305078</v>
+        <v>110304782</v>
       </c>
       <c r="J513" t="s">
         <v>2469</v>
@@ -32928,13 +32925,16 @@
         <v>3030</v>
       </c>
       <c r="L513" t="s">
-        <v>2469</v>
+        <v>3258</v>
       </c>
       <c r="M513" t="s">
         <v>3261</v>
       </c>
       <c r="N513" t="s">
-        <v>3285</v>
+        <v>3329</v>
+      </c>
+      <c r="O513" t="s">
+        <v>3344</v>
       </c>
     </row>
     <row r="514" spans="1:15">
